--- a/STUDEAT/created_df/df_coefs_LogisticRegression.xlsx
+++ b/STUDEAT/created_df/df_coefs_LogisticRegression.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM2"/>
+  <dimension ref="A1:AN2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,182 +446,187 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MAIA_Attention_regulation_subscale</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sport competence</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>F-MPS Concern over mistakes and doubts about actions</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>PSQI</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>HADS_anxiety</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Physical Strength</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>F-MPS Concern with precision, order and organisation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>MAIA_Not-distracting_subscale</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>EDSR_subscale_continuance</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>sport_time</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>F-MPS Excessive concern with parents expectations and evaluation</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>EDSR_subscale_lack_control</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>MAIA_Self-regulation_subscale</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>EDSR_subscale_reduction_activities</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>EDSR_subscale_time</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>BMI</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>EDSR_subscale_intention</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>MAIA_Noticing_subscale</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>EDSR</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>MAIA_Emotional_awareness_subscale</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>EDSR_subscale_intention</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>F-MPS Concern over mistakes and doubts about actions</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>F-MPS Excessive concern with parents expectations and evaluation</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>HADS_anxiety</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>MAIA_Attention_regulation_subscale</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>MAIA_Noticing_subscale</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>F-MPS Concern with precision, order and organisation</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>EDSR_subscale_tolerance</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>MAIA_Not-Worrying_subscale</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>HADS_depression</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>F-MPS Excessively high personal standards</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Physical condition</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>MAIA_Body_listening_subscale</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Perceived physical value</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>EDSR_subscale_withdrawal</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Interpersonal_motives</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Physical condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>EDSR_subscale_lack_control</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>EDSR_subscale_tolerance</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>EDSR</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>sport_time</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>EDSR_subscale_time</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>PSQI</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>EDSR_subscale_withdrawal</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>F-MPS Excessively high personal standards</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>HADS_depression</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Physical Strength</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Physical Appearence</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Sport competence</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>BMI</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>MAIA_Body_listening_subscale</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Health_motives</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>EDSR_subscale_reduction_activities</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Psychological_motives</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>EDSR_subscale_continuance</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>MAIA_Not-Worrying_subscale</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Fitness_motives</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>MAIA_Not-distracting_subscale</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Global Self-Esteem</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>MAIA_Trusting_subscale</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Perceived physical value</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>MAIA_Self-regulation_subscale</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Global Self-Esteem</t>
         </is>
       </c>
     </row>
@@ -630,85 +635,85 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.44</v>
+        <v>0.65</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="D2" t="n">
-        <v>0.31</v>
+        <v>0.42</v>
       </c>
       <c r="E2" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="F2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.25</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.24</v>
-      </c>
       <c r="H2" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="I2" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="J2" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="K2" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="L2" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="M2" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="P2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T2" t="n">
         <v>0.05</v>
       </c>
-      <c r="Q2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W2" t="n">
         <v>0.01</v>
       </c>
-      <c r="T2" t="n">
-        <v>-0</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="X2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Y2" t="n">
         <v>-0.01</v>
       </c>
-      <c r="V2" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="W2" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="X2" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>-0.05</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="AB2" t="n">
         <v>-0.07000000000000001</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>-0.08</v>
       </c>
       <c r="AC2" t="n">
         <v>-0.08</v>
@@ -720,28 +725,31 @@
         <v>-0.12</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.12</v>
+        <v>-0.14</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.17</v>
+        <v>-0.18</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.17</v>
+        <v>-0.19</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.19</v>
+        <v>-0.21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.19</v>
+        <v>-0.22</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.21</v>
+        <v>-0.23</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.21</v>
+        <v>-0.25</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.53</v>
+        <v>-0.26</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.51</v>
       </c>
     </row>
   </sheetData>
